--- a/dev/workspace/ED_BARCODE_APP/WebContent/dev-doc.xlsx
+++ b/dev/workspace/ED_BARCODE_APP/WebContent/dev-doc.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM\Documents\ED_APP_Workspace\ED_BARCODE_APP\WebContent\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5085"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20325" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="programe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S35"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>step1</t>
   </si>
@@ -82,6 +78,9 @@
   </si>
   <si>
     <t>ประวัติการทำรายการ</t>
+  </si>
+  <si>
+    <t>http://www.csstablegenerator.com/?table_id=41</t>
   </si>
 </sst>
 </file>
@@ -208,23 +207,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -500,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,15 +574,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -607,6 +593,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
